--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\565-6-Shefkia1\3-Katet\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Ferizaj\Ferizaj\Ingjinierike\2602-0-Albnori\3-Katet\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$69</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -72,21 +72,6 @@
     <t>Sead Prushi</t>
   </si>
   <si>
-    <t>O1-1</t>
-  </si>
-  <si>
-    <t>O1-2</t>
-  </si>
-  <si>
-    <t>O1-3</t>
-  </si>
-  <si>
-    <t>O1-4</t>
-  </si>
-  <si>
-    <t>SHKALLET</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -141,26 +126,26 @@
     <t>Kati 3</t>
   </si>
   <si>
-    <t>KATI4</t>
-  </si>
-  <si>
-    <t>KATI4-TERASAT</t>
-  </si>
-  <si>
-    <t>Kati 4</t>
-  </si>
-  <si>
     <t>KATI-NK</t>
   </si>
   <si>
     <t>Nënkulm</t>
+  </si>
+  <si>
+    <t>PERDHESA</t>
+  </si>
+  <si>
+    <t>SHKALET</t>
+  </si>
+  <si>
+    <t>Gjisthsej:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +177,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -613,43 +606,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -659,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -691,22 +647,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -720,10 +664,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -741,16 +685,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,6 +698,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,62 +806,33 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,7 +1104,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>: 00565-6</a:t>
+            <a:t>: 02606-0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1515,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,115 +1491,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1652,462 +1609,348 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="70" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7513135.568</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="E15" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="74">
+        <v>125.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="E16" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="E17" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="E18" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="75"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7513130.5959999999</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4691713.7060000002</v>
+      </c>
+      <c r="E19" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E15" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="72" t="s">
+      <c r="C20" s="5">
+        <v>7513129.4539999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4691712.6560000004</v>
+      </c>
+      <c r="E20" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="16">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7513129.1720000003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4691712.0049999999</v>
+      </c>
+      <c r="E21" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="16">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7513129.6200000001</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4691710.9950000001</v>
+      </c>
+      <c r="E22" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="75"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7513132.6849999996</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4691707.6550000003</v>
+      </c>
+      <c r="E23" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7513134.1550000003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4691707.0219999999</v>
+      </c>
+      <c r="E24" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="75"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="16">
+        <v>67</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="E25" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="75"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="16">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="E26" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="16">
         <v>8</v>
       </c>
-      <c r="H15" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="75">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E16" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E17" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="76"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
-        <v>56</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E18" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="C27" s="5">
+        <v>7513128.7640000004</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4691715.8310000002</v>
+      </c>
+      <c r="E27" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="77"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <v>96</v>
-      </c>
-      <c r="C19" s="5">
-        <v>7510826.4108999996</v>
-      </c>
-      <c r="D19" s="5">
-        <v>4693754.9310999997</v>
-      </c>
-      <c r="E19" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="75">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5">
-        <v>7510825.6070999997</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4693754.1304000001</v>
-      </c>
-      <c r="E20" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="76"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
-        <v>98</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7510831.4223999996</v>
-      </c>
-      <c r="D21" s="5">
-        <v>4693748.2926000003</v>
-      </c>
-      <c r="E21" s="16">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="14">
-        <v>99</v>
-      </c>
-      <c r="C22" s="15">
-        <v>7510832.2077000001</v>
-      </c>
-      <c r="D22" s="15">
-        <v>4693749.0749000004</v>
-      </c>
-      <c r="E22" s="17">
-        <v>580.96799999999996</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="18">
-        <f>SUM(I15:I21)</f>
-        <v>217.71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
-        <v>7</v>
-      </c>
-      <c r="C25" s="19">
-        <v>7510827.4069999997</v>
-      </c>
-      <c r="D25" s="20">
-        <v>4693753.9248000002</v>
-      </c>
-      <c r="E25" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="24">
-        <v>224.06</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
-        <v>12</v>
-      </c>
-      <c r="C26" s="19">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D26" s="20">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E26" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>13</v>
-      </c>
-      <c r="C27" s="19">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D27" s="20">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E27" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="77">
+        <v>7.32</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
-        <v>19</v>
-      </c>
-      <c r="C28" s="19">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D28" s="20">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E28" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="24"/>
+      <c r="B28" s="16">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>7513126.8399999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4691714.1189999999</v>
+      </c>
+      <c r="E28" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>52</v>
-      </c>
-      <c r="C29" s="19">
-        <v>7510831.3317</v>
-      </c>
-      <c r="D29" s="20">
-        <v>4693749.9599000001</v>
-      </c>
-      <c r="E29" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <v>56</v>
-      </c>
-      <c r="C30" s="19">
-        <v>7510822.3073000005</v>
-      </c>
-      <c r="D30" s="20">
-        <v>4693757.1810999997</v>
-      </c>
-      <c r="E30" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>8</v>
-      </c>
-      <c r="C31" s="19">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="D31" s="20">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="E31" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="24">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>100</v>
-      </c>
-      <c r="C32" s="19">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="D32" s="20">
-        <v>4693752.9923</v>
-      </c>
-      <c r="E32" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
-        <v>101</v>
-      </c>
-      <c r="C33" s="19">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D33" s="20">
-        <v>4693767.4611</v>
-      </c>
-      <c r="E33" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="36">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="26">
-        <v>102</v>
-      </c>
-      <c r="C34" s="27">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D34" s="28">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E34" s="15">
-        <v>584.09</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="31">
-        <f>SUM(I25:I33)</f>
-        <v>252.15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5">
+        <v>7513129.2566</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4691711.4588000001</v>
+      </c>
+      <c r="E29" s="14">
+        <v>620.11199999999997</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="79">
+        <f>I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I27+I28</f>
+        <v>132.52000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -2115,7 +1958,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
@@ -2126,209 +1969,347 @@
         <v>1</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="19">
         <v>7</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="15">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="16">
         <v>4693758.1205000002</v>
       </c>
       <c r="E37" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="61">
+        <v>21</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="37">
         <v>208.47</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
+    <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="19">
         <v>12</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="15">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="16">
         <v>4693754.3136</v>
       </c>
       <c r="E38" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="58"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="61"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
+        <v>21</v>
+      </c>
+      <c r="G38" s="68"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="19">
         <v>13</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="15">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="16">
         <v>4693745.7829</v>
       </c>
       <c r="E39" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="58"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
+        <v>21</v>
+      </c>
+      <c r="G39" s="68"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37"/>
+      <c r="M39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="19">
         <v>19</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="15">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="16">
         <v>4693766.6201999998</v>
       </c>
       <c r="E40" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="58"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
+        <v>21</v>
+      </c>
+      <c r="G40" s="68"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37"/>
+      <c r="M40" s="19">
+        <v>7</v>
+      </c>
+      <c r="N40" s="15">
+        <v>7510827.4069999997</v>
+      </c>
+      <c r="O40" s="16">
+        <v>4693753.9248000002</v>
+      </c>
+      <c r="P40" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="20">
+        <v>224.06</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="19">
         <v>8</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="15">
         <v>7510834.5436000004</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="16">
         <v>4693744.8530999999</v>
       </c>
       <c r="E41" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="58"/>
-      <c r="H41" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="61">
+        <v>22</v>
+      </c>
+      <c r="G41" s="68"/>
+      <c r="H41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="37">
         <v>22.95</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
+      <c r="M41" s="19">
+        <v>12</v>
+      </c>
+      <c r="N41" s="15">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="O41" s="16">
+        <v>4693754.3136</v>
+      </c>
+      <c r="P41" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="21"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
         <v>100</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="15">
         <v>7510822.3084000004</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="16">
         <v>4693757.18</v>
       </c>
       <c r="E42" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="58"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="61"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
+        <v>22</v>
+      </c>
+      <c r="G42" s="68"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="37"/>
+      <c r="M42" s="19">
+        <v>13</v>
+      </c>
+      <c r="N42" s="15">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="O42" s="16">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="P42" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="17"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="20"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
         <v>101</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="15">
         <v>7510832.6459999997</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="16">
         <v>4693767.4647000004</v>
       </c>
       <c r="E43" s="5">
         <v>587.16200000000003</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="24">
+        <v>22</v>
+      </c>
+      <c r="G43" s="68"/>
+      <c r="H43" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="20">
         <v>20.72</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26">
+      <c r="M43" s="19">
+        <v>19</v>
+      </c>
+      <c r="N43" s="15">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="O43" s="16">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="P43" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="17"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="20"/>
+    </row>
+    <row r="44" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="22">
         <v>102</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="23">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="24">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="13">
         <v>587.16200000000003</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="31">
+      <c r="F44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="27">
         <f>SUM(I37:I43)</f>
         <v>252.14</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="19">
+        <v>52</v>
+      </c>
+      <c r="N44" s="15">
+        <v>7510831.3317</v>
+      </c>
+      <c r="O44" s="16">
+        <v>4693749.9599000001</v>
+      </c>
+      <c r="P44" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="17"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="20"/>
+    </row>
+    <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M45" s="19">
+        <v>56</v>
+      </c>
+      <c r="N45" s="15">
+        <v>7510822.3073000005</v>
+      </c>
+      <c r="O45" s="16">
+        <v>4693757.1810999997</v>
+      </c>
+      <c r="P45" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="17"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="20"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>5</v>
       </c>
@@ -2339,201 +2320,286 @@
         <v>1</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
+      <c r="M46" s="19">
+        <v>8</v>
+      </c>
+      <c r="N46" s="15">
+        <v>7510830.3949999996</v>
+      </c>
+      <c r="O46" s="16">
+        <v>4693749.0327000003</v>
+      </c>
+      <c r="P46" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="17"/>
+      <c r="S46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="20">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
         <v>7</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="15">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="16">
         <v>4693758.1205000002</v>
       </c>
       <c r="E47" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="61">
+        <v>26</v>
+      </c>
+      <c r="G47" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="37">
         <v>208.47</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
+      <c r="M47" s="19">
+        <v>100</v>
+      </c>
+      <c r="N47" s="15">
+        <v>7510826.4649999999</v>
+      </c>
+      <c r="O47" s="16">
+        <v>4693752.9923</v>
+      </c>
+      <c r="P47" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R47" s="17"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="20"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
         <v>12</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="15">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="16">
         <v>4693754.3136</v>
       </c>
       <c r="E48" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="58"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
+        <v>26</v>
+      </c>
+      <c r="G48" s="68"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="37"/>
+      <c r="M48" s="19">
+        <v>101</v>
+      </c>
+      <c r="N48" s="15">
+        <v>7510832.6496000001</v>
+      </c>
+      <c r="O48" s="16">
+        <v>4693767.4611</v>
+      </c>
+      <c r="P48" s="5">
+        <v>584.09</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R48" s="17"/>
+      <c r="S48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="30">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="19">
         <v>13</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="15">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="16">
         <v>4693745.7829</v>
       </c>
       <c r="E49" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="61"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
+        <v>26</v>
+      </c>
+      <c r="G49" s="68"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="37"/>
+      <c r="M49" s="22">
+        <v>102</v>
+      </c>
+      <c r="N49" s="23">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="O49" s="24">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="P49" s="13">
+        <v>584.09</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="25"/>
+      <c r="S49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="T49" s="27">
+        <f>SUM(T40:T48)</f>
+        <v>252.15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="19">
         <v>19</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="15">
         <v>7510831.7971999999</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="16">
         <v>4693766.6201999998</v>
       </c>
       <c r="E50" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="58"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
+        <v>26</v>
+      </c>
+      <c r="G50" s="68"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="19">
         <v>8</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="15">
         <v>7510834.5436000004</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="16">
         <v>4693744.8530999999</v>
       </c>
       <c r="E51" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="58"/>
-      <c r="H51" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="61">
+        <v>27</v>
+      </c>
+      <c r="G51" s="68"/>
+      <c r="H51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="37">
         <v>22.95</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="19">
         <v>100</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="15">
         <v>7510822.3084000004</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="16">
         <v>4693757.18</v>
       </c>
       <c r="E52" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="58"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
+        <v>27</v>
+      </c>
+      <c r="G52" s="68"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="19">
         <v>101</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="15">
         <v>7510832.6459999997</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="16">
         <v>4693767.4647000004</v>
       </c>
       <c r="E53" s="5">
         <v>590.18700000000001</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="33">
+        <v>27</v>
+      </c>
+      <c r="G53" s="68"/>
+      <c r="H53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="29">
         <v>20.72</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="26">
+    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22">
         <v>102</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="23">
         <v>7510844.7790999999</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="24">
         <v>4693755.1654000003</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="13">
         <v>590.18700000000001</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="59"/>
-      <c r="H54" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="31">
+      <c r="F54" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="69"/>
+      <c r="H54" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="27">
         <f>SUM(I47:I53)</f>
         <v>252.14</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
@@ -2541,504 +2607,294 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="E57" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="12" t="s">
+      <c r="H57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="19">
         <v>7</v>
       </c>
-      <c r="C57" s="19">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D57" s="20">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E57" s="5">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="61">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="23">
+      <c r="C58" s="15">
+        <v>7510825.8598999996</v>
+      </c>
+      <c r="D58" s="16">
+        <v>4693760.7132999999</v>
+      </c>
+      <c r="E58" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="34">
+        <v>136.41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="19">
         <v>12</v>
       </c>
-      <c r="C58" s="19">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D58" s="20">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E58" s="5">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="58"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="61"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
+      <c r="C59" s="15">
+        <v>7510843.0706000002</v>
+      </c>
+      <c r="D59" s="16">
+        <v>4693753.4441</v>
+      </c>
+      <c r="E59" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="19">
         <v>13</v>
       </c>
-      <c r="C59" s="19">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D59" s="20">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E59" s="5">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="58"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="61"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="23">
+      <c r="C60" s="15">
+        <v>7510838.0334000001</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4693748.3690999998</v>
+      </c>
+      <c r="E60" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="19">
         <v>19</v>
       </c>
-      <c r="C60" s="19">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D60" s="20">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E60" s="5">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="61"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
-        <v>8</v>
-      </c>
-      <c r="C61" s="19">
-        <v>7510834.5362</v>
-      </c>
-      <c r="D61" s="20">
-        <v>4693744.8603999997</v>
+      <c r="C61" s="15">
+        <v>7510830.9287</v>
+      </c>
+      <c r="D61" s="16">
+        <v>4693765.7561999997</v>
       </c>
       <c r="E61" s="5">
-        <v>593.27200000000005</v>
+        <v>595.572</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="58"/>
-      <c r="H61" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="61">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="23">
-        <v>100</v>
-      </c>
-      <c r="C62" s="19">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D62" s="20">
-        <v>4693757.18</v>
+        <v>29</v>
+      </c>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="19">
+        <v>105</v>
+      </c>
+      <c r="C62" s="15">
+        <v>7510833.7575000003</v>
+      </c>
+      <c r="D62" s="16">
+        <v>4693752.7050000001</v>
       </c>
       <c r="E62" s="5">
-        <v>593.27200000000005</v>
+        <v>595.572</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="58"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="61"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
-        <v>101</v>
-      </c>
-      <c r="C63" s="19">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="D63" s="20">
-        <v>4693767.4611</v>
+        <v>29</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="19">
+        <v>106</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7510832.0308999997</v>
+      </c>
+      <c r="D63" s="16">
+        <v>4693751.0022</v>
       </c>
       <c r="E63" s="5">
-        <v>593.27200000000005</v>
+        <v>595.572</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="58"/>
-      <c r="H63" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="35">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="26">
-        <v>102</v>
-      </c>
-      <c r="C64" s="27">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D64" s="28">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E64" s="15">
-        <v>593.27200000000005</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64" s="59"/>
-      <c r="H64" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="31">
-        <f>SUM(I57:I63)</f>
-        <v>252.14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="19">
+        <v>107</v>
+      </c>
+      <c r="C64" s="15">
+        <v>7510828.3795999996</v>
+      </c>
+      <c r="D64" s="16">
+        <v>4693754.7046999997</v>
+      </c>
+      <c r="E64" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
+      <c r="B65" s="22">
+        <v>108</v>
+      </c>
+      <c r="C65" s="23">
+        <v>7510830.1062000003</v>
+      </c>
+      <c r="D65" s="24">
+        <v>4693756.4073999999</v>
+      </c>
+      <c r="E65" s="13">
+        <v>595.572</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
-        <v>7</v>
-      </c>
-      <c r="C67" s="19">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="D67" s="20">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="E67" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="72">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="23">
-        <v>12</v>
-      </c>
-      <c r="C68" s="19">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="D68" s="20">
-        <v>4693753.4441</v>
-      </c>
-      <c r="E68" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
-        <v>13</v>
-      </c>
-      <c r="C69" s="19">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="D69" s="20">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="E69" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
-        <v>19</v>
-      </c>
-      <c r="C70" s="19">
-        <v>7510830.9287</v>
-      </c>
-      <c r="D70" s="20">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="E70" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
-        <v>105</v>
-      </c>
-      <c r="C71" s="19">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="D71" s="20">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="E71" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="73"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
-        <v>106</v>
-      </c>
-      <c r="C72" s="19">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="D72" s="20">
-        <v>4693751.0022</v>
-      </c>
-      <c r="E72" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
-        <v>107</v>
-      </c>
-      <c r="C73" s="19">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="D73" s="20">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="E73" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="26">
-        <v>108</v>
-      </c>
-      <c r="C74" s="27">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="D74" s="28">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="E74" s="15">
-        <v>595.572</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-    </row>
-    <row r="76" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="49" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="45" t="s">
+      <c r="F68" s="60"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="41"/>
-    </row>
-    <row r="78" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="52" t="s">
+      <c r="I68" s="56"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="51"/>
+    </row>
+    <row r="69" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="55">
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65">
         <v>152</v>
       </c>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="47"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="43"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K81" s="1"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="I67:I74"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="J77:K78"/>
+  <mergeCells count="26">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="G15:G29"/>
+    <mergeCell ref="J68:K69"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:G69"/>
     <mergeCell ref="G37:G44"/>
-    <mergeCell ref="G57:G64"/>
-    <mergeCell ref="H57:H60"/>
     <mergeCell ref="H37:H40"/>
     <mergeCell ref="I37:I40"/>
     <mergeCell ref="G47:G54"/>
     <mergeCell ref="H47:H50"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="G58:G65"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="H58:H65"/>
+    <mergeCell ref="I58:I65"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$78</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>Y</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>KATI1</t>
-  </si>
-  <si>
-    <t>KATI1-TERASAT</t>
   </si>
   <si>
     <t>Kati1</t>
@@ -615,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -657,9 +654,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -667,15 +661,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,12 +676,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -832,6 +816,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1472,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="B31:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,115 +1482,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1610,28 +1601,28 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="65" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1649,15 +1640,15 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="69">
         <v>125.2</v>
       </c>
     </row>
@@ -1675,11 +1666,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
@@ -1695,11 +1686,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
@@ -1715,11 +1706,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
@@ -1735,11 +1726,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="70"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
@@ -1755,11 +1746,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
@@ -1775,11 +1766,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
@@ -1795,11 +1786,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
@@ -1815,11 +1806,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
@@ -1835,11 +1826,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
@@ -1855,11 +1846,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="75"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="70"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
@@ -1875,11 +1866,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="76"/>
+        <v>30</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
@@ -1895,13 +1886,13 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="72">
         <v>7.32</v>
       </c>
     </row>
@@ -1919,11 +1910,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="78"/>
+        <v>31</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
@@ -1939,962 +1930,1029 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="44"/>
+      <c r="H29" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="49"/>
-      <c r="H29" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="79">
+      <c r="I29" s="74">
         <f>I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I27+I28</f>
         <v>132.52000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="19">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15">
+        <v>7513135.568</v>
+      </c>
+      <c r="D32" s="16">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="E32" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="29">
+        <v>141.58000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
+        <v>2</v>
+      </c>
+      <c r="C33" s="15">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="E33" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
         <v>7</v>
       </c>
+      <c r="C34" s="15">
+        <v>7513128.9859999996</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4691715.5049999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
+        <v>23</v>
+      </c>
+      <c r="C35" s="15">
+        <v>7513133.25</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4691719.318</v>
+      </c>
+      <c r="E35" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="18">
+        <v>24</v>
+      </c>
+      <c r="C36" s="15">
+        <v>7513127.2779999999</v>
+      </c>
+      <c r="D36" s="16">
+        <v>4691713.9479999999</v>
+      </c>
+      <c r="E36" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>25</v>
+      </c>
       <c r="C37" s="15">
+        <v>7513127.3820000002</v>
+      </c>
+      <c r="D37" s="16">
+        <v>4691712.1909999996</v>
+      </c>
+      <c r="E37" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="18">
+        <v>26</v>
+      </c>
+      <c r="C38" s="15">
+        <v>7513128.142</v>
+      </c>
+      <c r="D38" s="16">
+        <v>4691711.0889999997</v>
+      </c>
+      <c r="E38" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="18">
+        <v>27</v>
+      </c>
+      <c r="C39" s="15">
+        <v>7513132.0240000002</v>
+      </c>
+      <c r="D39" s="16">
+        <v>4691706.8949999996</v>
+      </c>
+      <c r="E39" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="18">
+        <v>28</v>
+      </c>
+      <c r="C40" s="15">
+        <v>7513133.5190000003</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4691706.18</v>
+      </c>
+      <c r="E40" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
+        <v>65</v>
+      </c>
+      <c r="C41" s="15">
+        <v>7513134.1436999999</v>
+      </c>
+      <c r="D41" s="16">
+        <v>4691706.1939000003</v>
+      </c>
+      <c r="E41" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="18">
+        <v>67</v>
+      </c>
+      <c r="C42" s="15">
+        <v>7513135.8569999998</v>
+      </c>
+      <c r="D42" s="16">
+        <v>4691707.7450000001</v>
+      </c>
+      <c r="E42" s="5">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="20">
+        <v>68</v>
+      </c>
+      <c r="C43" s="21">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="D43" s="22">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="E43" s="13">
+        <v>623.17399999999998</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="31">
+        <f>SUM(I32:I40)</f>
+        <v>141.58000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="18">
+        <v>7</v>
+      </c>
+      <c r="C46" s="15">
         <v>7510823.2538000001</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D46" s="16">
         <v>4693758.1205000002</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E46" s="5">
         <v>587.16200000000003</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="32">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
+        <v>12</v>
+      </c>
+      <c r="C47" s="15">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="D47" s="16">
+        <v>4693754.3136</v>
+      </c>
+      <c r="E47" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="63"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="18">
+        <v>13</v>
+      </c>
+      <c r="C48" s="15">
+        <v>7510835.4665000001</v>
+      </c>
+      <c r="D48" s="16">
+        <v>4693745.7829</v>
+      </c>
+      <c r="E48" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
+        <v>19</v>
+      </c>
+      <c r="C49" s="15">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="D49" s="16">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="E49" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="18">
+        <v>8</v>
+      </c>
+      <c r="C50" s="15">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="D50" s="16">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="E50" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G50" s="63"/>
+      <c r="H50" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="32">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="18">
+        <v>100</v>
+      </c>
+      <c r="C51" s="15">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="D51" s="16">
+        <v>4693757.18</v>
+      </c>
+      <c r="E51" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="63"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="18">
+        <v>101</v>
+      </c>
+      <c r="C52" s="15">
+        <v>7510832.6459999997</v>
+      </c>
+      <c r="D52" s="16">
+        <v>4693767.4647000004</v>
+      </c>
+      <c r="E52" s="5">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="63"/>
+      <c r="H52" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="19">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20">
+        <v>102</v>
+      </c>
+      <c r="C53" s="21">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="D53" s="22">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="E53" s="13">
+        <v>587.16200000000003</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="64"/>
+      <c r="H53" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="24">
+        <f>SUM(I46:I52)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="18">
+        <v>7</v>
+      </c>
+      <c r="C56" s="15">
+        <v>7510823.2538000001</v>
+      </c>
+      <c r="D56" s="16">
+        <v>4693758.1205000002</v>
+      </c>
+      <c r="E56" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="37">
+      <c r="G56" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="32">
         <v>208.47</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
         <v>12</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C57" s="15">
         <v>7510843.9336000001</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D57" s="16">
         <v>4693754.3136</v>
       </c>
-      <c r="E38" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="68"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="37"/>
-    </row>
-    <row r="39" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="19">
+      <c r="E57" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="63"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="18">
         <v>13</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C58" s="15">
         <v>7510835.4665000001</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D58" s="16">
         <v>4693745.7829</v>
       </c>
-      <c r="E39" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="68"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="37"/>
-      <c r="M39" s="10" t="s">
+      <c r="E58" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="63"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="18">
+        <v>19</v>
+      </c>
+      <c r="C59" s="15">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="D59" s="16">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="E59" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="63"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
+        <v>8</v>
+      </c>
+      <c r="C60" s="15">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="E60" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="32">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="18">
+        <v>100</v>
+      </c>
+      <c r="C61" s="15">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="D61" s="16">
+        <v>4693757.18</v>
+      </c>
+      <c r="E61" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
+        <v>101</v>
+      </c>
+      <c r="C62" s="15">
+        <v>7510832.6459999997</v>
+      </c>
+      <c r="D62" s="16">
+        <v>4693767.4647000004</v>
+      </c>
+      <c r="E62" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="26">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="20">
+        <v>102</v>
+      </c>
+      <c r="C63" s="21">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="D63" s="22">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="E63" s="13">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="64"/>
+      <c r="H63" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="24">
+        <f>SUM(I56:I62)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="D66" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="G66" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S39" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T39" s="12" t="s">
+      <c r="I66" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="18">
+        <v>7</v>
+      </c>
+      <c r="C67" s="15">
+        <v>7510825.8598999996</v>
+      </c>
+      <c r="D67" s="16">
+        <v>4693760.7132999999</v>
+      </c>
+      <c r="E67" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" s="29">
+        <v>136.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
+        <v>12</v>
+      </c>
+      <c r="C68" s="15">
+        <v>7510843.0706000002</v>
+      </c>
+      <c r="D68" s="16">
+        <v>4693753.4441</v>
+      </c>
+      <c r="E68" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="18">
+        <v>13</v>
+      </c>
+      <c r="C69" s="15">
+        <v>7510838.0334000001</v>
+      </c>
+      <c r="D69" s="16">
+        <v>4693748.3690999998</v>
+      </c>
+      <c r="E69" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="18">
         <v>19</v>
       </c>
-      <c r="C40" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D40" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E40" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="68"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="37"/>
-      <c r="M40" s="19">
-        <v>7</v>
-      </c>
-      <c r="N40" s="15">
-        <v>7510827.4069999997</v>
-      </c>
-      <c r="O40" s="16">
-        <v>4693753.9248000002</v>
-      </c>
-      <c r="P40" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="S40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T40" s="20">
-        <v>224.06</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="19">
-        <v>8</v>
-      </c>
-      <c r="C41" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D41" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E41" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="68"/>
-      <c r="H41" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="37">
-        <v>22.95</v>
-      </c>
-      <c r="M41" s="19">
-        <v>12</v>
-      </c>
-      <c r="N41" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="O41" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="P41" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R41" s="17"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="21"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="19">
-        <v>100</v>
-      </c>
-      <c r="C42" s="15">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D42" s="16">
-        <v>4693757.18</v>
-      </c>
-      <c r="E42" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="68"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="37"/>
-      <c r="M42" s="19">
-        <v>13</v>
-      </c>
-      <c r="N42" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="O42" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="P42" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="17"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="20"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
-        <v>101</v>
-      </c>
-      <c r="C43" s="15">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D43" s="16">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E43" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" s="68"/>
-      <c r="H43" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="20">
-        <v>20.72</v>
-      </c>
-      <c r="M43" s="19">
-        <v>19</v>
-      </c>
-      <c r="N43" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="O43" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="P43" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="17"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="20"/>
-    </row>
-    <row r="44" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="22">
-        <v>102</v>
-      </c>
-      <c r="C44" s="23">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D44" s="24">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E44" s="13">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="27">
-        <f>SUM(I37:I43)</f>
-        <v>252.14</v>
-      </c>
-      <c r="M44" s="19">
-        <v>52</v>
-      </c>
-      <c r="N44" s="15">
-        <v>7510831.3317</v>
-      </c>
-      <c r="O44" s="16">
-        <v>4693749.9599000001</v>
-      </c>
-      <c r="P44" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="17"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="20"/>
-    </row>
-    <row r="45" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="M45" s="19">
-        <v>56</v>
-      </c>
-      <c r="N45" s="15">
-        <v>7510822.3073000005</v>
-      </c>
-      <c r="O45" s="16">
-        <v>4693757.1810999997</v>
-      </c>
-      <c r="P45" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="17"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="20"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="19">
-        <v>8</v>
-      </c>
-      <c r="N46" s="15">
-        <v>7510830.3949999996</v>
-      </c>
-      <c r="O46" s="16">
-        <v>4693749.0327000003</v>
-      </c>
-      <c r="P46" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="17"/>
-      <c r="S46" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="T46" s="20">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
-        <v>7</v>
-      </c>
-      <c r="C47" s="15">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D47" s="16">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E47" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="68" t="s">
+      <c r="C70" s="15">
+        <v>7510830.9287</v>
+      </c>
+      <c r="D70" s="16">
+        <v>4693765.7561999997</v>
+      </c>
+      <c r="E70" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="18">
+        <v>105</v>
+      </c>
+      <c r="C71" s="15">
+        <v>7510833.7575000003</v>
+      </c>
+      <c r="D71" s="16">
+        <v>4693752.7050000001</v>
+      </c>
+      <c r="E71" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="37">
-        <v>208.47</v>
-      </c>
-      <c r="M47" s="19">
-        <v>100</v>
-      </c>
-      <c r="N47" s="15">
-        <v>7510826.4649999999</v>
-      </c>
-      <c r="O47" s="16">
-        <v>4693752.9923</v>
-      </c>
-      <c r="P47" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R47" s="17"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="20"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
-        <v>12</v>
-      </c>
-      <c r="C48" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D48" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E48" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="37"/>
-      <c r="M48" s="19">
-        <v>101</v>
-      </c>
-      <c r="N48" s="15">
-        <v>7510832.6496000001</v>
-      </c>
-      <c r="O48" s="16">
-        <v>4693767.4611</v>
-      </c>
-      <c r="P48" s="5">
-        <v>584.09</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R48" s="17"/>
-      <c r="S48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="T48" s="30">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="19">
-        <v>13</v>
-      </c>
-      <c r="C49" s="15">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D49" s="16">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E49" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="68"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="37"/>
-      <c r="M49" s="22">
-        <v>102</v>
-      </c>
-      <c r="N49" s="23">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="O49" s="24">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="P49" s="13">
-        <v>584.09</v>
-      </c>
-      <c r="Q49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R49" s="25"/>
-      <c r="S49" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="T49" s="27">
-        <f>SUM(T40:T48)</f>
-        <v>252.15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
-        <v>19</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D50" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E50" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="19">
-        <v>8</v>
-      </c>
-      <c r="C51" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D51" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E51" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="37">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
-        <v>100</v>
-      </c>
-      <c r="C52" s="15">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D52" s="16">
-        <v>4693757.18</v>
-      </c>
-      <c r="E52" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="68"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="19">
-        <v>101</v>
-      </c>
-      <c r="C53" s="15">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D53" s="16">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E53" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="68"/>
-      <c r="H53" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="29">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22">
-        <v>102</v>
-      </c>
-      <c r="C54" s="23">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D54" s="24">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E54" s="13">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="69"/>
-      <c r="H54" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="27">
-        <f>SUM(I47:I53)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
-        <v>7</v>
-      </c>
-      <c r="C58" s="15">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="D58" s="16">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
+        <v>106</v>
+      </c>
+      <c r="C72" s="15">
+        <v>7510832.0308999997</v>
+      </c>
+      <c r="D72" s="16">
+        <v>4693751.0022</v>
+      </c>
+      <c r="E72" s="5">
         <v>595.572</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="34">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
-        <v>12</v>
-      </c>
-      <c r="C59" s="15">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="D59" s="16">
-        <v>4693753.4441</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="F72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="18">
+        <v>107</v>
+      </c>
+      <c r="C73" s="15">
+        <v>7510828.3795999996</v>
+      </c>
+      <c r="D73" s="16">
+        <v>4693754.7046999997</v>
+      </c>
+      <c r="E73" s="5">
         <v>595.572</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
-        <v>13</v>
-      </c>
-      <c r="C60" s="15">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="D60" s="16">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="E60" s="5">
+      <c r="F73" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="20">
+        <v>108</v>
+      </c>
+      <c r="C74" s="21">
+        <v>7510830.1062000003</v>
+      </c>
+      <c r="D74" s="22">
+        <v>4693756.4073999999</v>
+      </c>
+      <c r="E74" s="13">
         <v>595.572</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
-        <v>19</v>
-      </c>
-      <c r="C61" s="15">
-        <v>7510830.9287</v>
-      </c>
-      <c r="D61" s="16">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="E61" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
-        <v>105</v>
-      </c>
-      <c r="C62" s="15">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="D62" s="16">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="E62" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B63" s="19">
-        <v>106</v>
-      </c>
-      <c r="C63" s="15">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="D63" s="16">
-        <v>4693751.0022</v>
-      </c>
-      <c r="E63" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
-        <v>107</v>
-      </c>
-      <c r="C64" s="15">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="D64" s="16">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="E64" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="22">
-        <v>108</v>
-      </c>
-      <c r="C65" s="23">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="D65" s="24">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="E65" s="13">
-        <v>595.572</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="F74" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+    </row>
+    <row r="76" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="59" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="60"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="55" t="s">
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
-    </row>
-    <row r="69" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="62" t="s">
+      <c r="I77" s="51"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="46"/>
+    </row>
+    <row r="78" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65">
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="60">
         <v>152</v>
       </c>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="53"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K72" s="1"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="48"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="G32:G43"/>
+    <mergeCell ref="H32:H43"/>
+    <mergeCell ref="I32:I43"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="H15:H26"/>
     <mergeCell ref="I15:I26"/>
     <mergeCell ref="G15:G29"/>
-    <mergeCell ref="J68:K69"/>
+    <mergeCell ref="J77:K78"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="G37:G44"/>
-    <mergeCell ref="H37:H40"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="G47:G54"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="G58:G65"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="G46:G53"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="G56:G63"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="G67:G74"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="H58:H65"/>
-    <mergeCell ref="I58:I65"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="H67:H74"/>
+    <mergeCell ref="I67:I74"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -102,9 +102,6 @@
     <t>KATI2</t>
   </si>
   <si>
-    <t>KATI2-TERASAT</t>
-  </si>
-  <si>
     <t>Gjthsej:</t>
   </si>
   <si>
@@ -136,6 +133,12 @@
   </si>
   <si>
     <t>Gjisthsej:</t>
+  </si>
+  <si>
+    <t>KAT2</t>
+  </si>
+  <si>
+    <t>KAT2-TERASA</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -603,6 +606,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -612,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -654,13 +694,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,13 +709,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,7 +731,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,6 +864,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,6 +1182,325 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5400345" y="2581746"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4496634" y="207219"/>
+          <a:ext cx="1096781" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216804" y="2321550"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451359</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5673300" y="2351539"/>
+          <a:ext cx="2953749" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Ferizaj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606643</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>89338</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3298607" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211761" y="2588250"/>
+          <a:ext cx="3298607" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: 02606-0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425364</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>90592</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647305" y="2589504"/>
           <a:ext cx="3051603" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1463,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:U133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="B31:I43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A74" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94:U113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,7 +2017,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>8</v>
@@ -1666,7 +2043,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -1686,7 +2063,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -1706,7 +2083,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -1726,7 +2103,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -1746,7 +2123,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -1766,7 +2143,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -1786,7 +2163,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -1806,7 +2183,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -1826,7 +2203,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
@@ -1846,7 +2223,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -1866,7 +2243,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="44"/>
@@ -1886,7 +2263,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="67" t="s">
@@ -1910,7 +2287,7 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="68"/>
@@ -1930,11 +2307,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" s="74">
         <f>I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I27+I28</f>
@@ -1978,7 +2355,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <v>1</v>
       </c>
       <c r="C32" s="15">
@@ -2004,7 +2381,7 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>2</v>
       </c>
       <c r="C33" s="15">
@@ -2024,7 +2401,7 @@
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="18">
+      <c r="B34" s="17">
         <v>7</v>
       </c>
       <c r="C34" s="15">
@@ -2044,7 +2421,7 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="18">
+      <c r="B35" s="17">
         <v>23</v>
       </c>
       <c r="C35" s="15">
@@ -2064,7 +2441,7 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="18">
+      <c r="B36" s="17">
         <v>24</v>
       </c>
       <c r="C36" s="15">
@@ -2084,7 +2461,7 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>25</v>
       </c>
       <c r="C37" s="15">
@@ -2104,7 +2481,7 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="18">
+      <c r="B38" s="17">
         <v>26</v>
       </c>
       <c r="C38" s="15">
@@ -2124,7 +2501,7 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>27</v>
       </c>
       <c r="C39" s="15">
@@ -2144,7 +2521,7 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="18">
+      <c r="B40" s="17">
         <v>28</v>
       </c>
       <c r="C40" s="15">
@@ -2164,7 +2541,7 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>65</v>
       </c>
       <c r="C41" s="15">
@@ -2184,7 +2561,7 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="18">
+      <c r="B42" s="17">
         <v>67</v>
       </c>
       <c r="C42" s="15">
@@ -2204,13 +2581,13 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <v>68</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="19">
         <v>7513143.2529999996</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="20">
         <v>4691714.4639999997</v>
       </c>
       <c r="E43" s="13">
@@ -2263,696 +2640,1380 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="18">
+      <c r="B46" s="17">
+        <v>29</v>
+      </c>
+      <c r="C46" s="15">
+        <v>7513128.0889999997</v>
+      </c>
+      <c r="D46" s="16">
+        <v>4691711.1370000001</v>
+      </c>
+      <c r="E46" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="81">
+        <v>128.09</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
+        <v>30</v>
+      </c>
+      <c r="C47" s="15">
+        <v>7513129.4409999996</v>
+      </c>
+      <c r="D47" s="16">
+        <v>4691712.3439999996</v>
+      </c>
+      <c r="E47" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="63"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="82"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>32</v>
+      </c>
+      <c r="C48" s="15">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="D48" s="16">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="82"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>33</v>
+      </c>
+      <c r="C49" s="15">
+        <v>7513130.8293000003</v>
+      </c>
+      <c r="D49" s="16">
+        <v>4691708.1857000003</v>
+      </c>
+      <c r="E49" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="63"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="82"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>70</v>
+      </c>
+      <c r="C50" s="15">
+        <v>7513132.1501000002</v>
+      </c>
+      <c r="D50" s="16">
+        <v>4691709.3887999998</v>
+      </c>
+      <c r="E50" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="63"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="82"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
+        <v>72</v>
+      </c>
+      <c r="C51" s="15">
+        <v>7513136.3949999996</v>
+      </c>
+      <c r="D51" s="16">
+        <v>4691708.2209999999</v>
+      </c>
+      <c r="E51" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="63"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="82"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="17">
+        <v>76</v>
+      </c>
+      <c r="C52" s="15">
+        <v>7513142.2759999996</v>
+      </c>
+      <c r="D52" s="16">
+        <v>4691715.0760000004</v>
+      </c>
+      <c r="E52" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="63"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="82"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
+        <v>77</v>
+      </c>
+      <c r="C53" s="15">
+        <v>7513139.7516000001</v>
+      </c>
+      <c r="D53" s="16">
+        <v>4691712.7413999997</v>
+      </c>
+      <c r="E53" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="63"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="82"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" s="15">
+        <v>7513135.568</v>
+      </c>
+      <c r="D54" s="16">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="E54" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="63"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="17">
+        <v>2</v>
+      </c>
+      <c r="C55" s="15">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="D55" s="16">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="E55" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="63"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="82"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="17">
         <v>7</v>
       </c>
-      <c r="C46" s="15">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D46" s="16">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E46" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="C56" s="15">
+        <v>7513127.6715000002</v>
+      </c>
+      <c r="D56" s="16">
+        <v>4691714.3066999996</v>
+      </c>
+      <c r="E56" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="32">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="18">
-        <v>12</v>
-      </c>
-      <c r="C47" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D47" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E47" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="G56" s="63"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="17">
+        <v>28</v>
+      </c>
+      <c r="C57" s="15">
+        <v>7513134.6310000001</v>
+      </c>
+      <c r="D57" s="16">
+        <v>4691706.6350999996</v>
+      </c>
+      <c r="E57" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="18">
-        <v>13</v>
-      </c>
-      <c r="C48" s="15">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D48" s="16">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E48" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F48" s="5" t="s">
+      <c r="G57" s="63"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="82"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="17">
+        <v>65</v>
+      </c>
+      <c r="C58" s="15">
+        <v>7513134.1436999999</v>
+      </c>
+      <c r="D58" s="16">
+        <v>4691706.1939000003</v>
+      </c>
+      <c r="E58" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="18">
+      <c r="G58" s="63"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="82"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="17">
+        <v>68</v>
+      </c>
+      <c r="C59" s="15">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="D59" s="16">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="E59" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="63"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="83"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="17">
+        <v>36</v>
+      </c>
+      <c r="C60" s="15">
+        <v>7513127.2779999999</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4691713.9479999999</v>
+      </c>
+      <c r="E60" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="63"/>
+      <c r="H60" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D49" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E49" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="18">
-        <v>8</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D50" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E50" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="I60" s="28">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="17">
+        <v>37</v>
+      </c>
+      <c r="C61" s="15">
+        <v>7513127.3006999996</v>
+      </c>
+      <c r="D61" s="16">
+        <v>4691712.4320999999</v>
+      </c>
+      <c r="E61" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="17">
+        <v>40</v>
+      </c>
+      <c r="C62" s="15">
+        <v>7513132.0240000002</v>
+      </c>
+      <c r="D62" s="16">
+        <v>4691706.8949999996</v>
+      </c>
+      <c r="E62" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="63"/>
+      <c r="H62" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="28">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="17">
+        <v>41</v>
+      </c>
+      <c r="C63" s="15">
+        <v>7513133.0001999997</v>
+      </c>
+      <c r="D63" s="16">
+        <v>4691706.2916000001</v>
+      </c>
+      <c r="E63" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="63"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="17">
+        <v>74</v>
+      </c>
+      <c r="C64" s="15">
+        <v>7513140.4890000001</v>
+      </c>
+      <c r="D64" s="16">
+        <v>4691711.9440000001</v>
+      </c>
+      <c r="E64" s="5">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="63"/>
+      <c r="H64" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="28">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="18">
+        <v>75</v>
+      </c>
+      <c r="C65" s="19">
+        <v>7513143.0029999996</v>
+      </c>
+      <c r="D65" s="20">
+        <v>4691714.2529999996</v>
+      </c>
+      <c r="E65" s="13">
+        <v>626.09400000000005</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="64"/>
+      <c r="H65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="32">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="18">
-        <v>100</v>
-      </c>
-      <c r="C51" s="15">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D51" s="16">
-        <v>4693757.18</v>
-      </c>
-      <c r="E51" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="18">
-        <v>101</v>
-      </c>
-      <c r="C52" s="15">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D52" s="16">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E52" s="5">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="19">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20">
-        <v>102</v>
-      </c>
-      <c r="C53" s="21">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D53" s="22">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E53" s="13">
-        <v>587.16200000000003</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="24">
-        <f>SUM(I46:I52)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
-        <v>7</v>
-      </c>
-      <c r="C56" s="15">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="D56" s="16">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="E56" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="32">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="18">
-        <v>12</v>
-      </c>
-      <c r="C57" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="D57" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="E57" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="18">
-        <v>13</v>
-      </c>
-      <c r="C58" s="15">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="D58" s="16">
-        <v>4693745.7829</v>
-      </c>
-      <c r="E58" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="18">
-        <v>19</v>
-      </c>
-      <c r="C59" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="D59" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="E59" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="32"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="18">
-        <v>8</v>
-      </c>
-      <c r="C60" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="D60" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="E60" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="32">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="18">
-        <v>100</v>
-      </c>
-      <c r="C61" s="15">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="D61" s="16">
-        <v>4693757.18</v>
-      </c>
-      <c r="E61" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="32"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="18">
-        <v>101</v>
-      </c>
-      <c r="C62" s="15">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="D62" s="16">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="E62" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="26">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="20">
-        <v>102</v>
-      </c>
-      <c r="C63" s="21">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="D63" s="22">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="E63" s="13">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" s="64"/>
-      <c r="H63" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="24">
-        <f>SUM(I56:I62)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="6"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="I65" s="22">
+        <v>141.61000000000001</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="18">
-        <v>7</v>
-      </c>
-      <c r="C67" s="15">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="D67" s="16">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="E67" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I67" s="29">
-        <v>136.41</v>
-      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="18">
-        <v>12</v>
-      </c>
-      <c r="C68" s="15">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="D68" s="16">
-        <v>4693753.4441</v>
-      </c>
-      <c r="E68" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="18">
-        <v>13</v>
-      </c>
-      <c r="C69" s="15">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="D69" s="16">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="E69" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="18">
-        <v>19</v>
-      </c>
-      <c r="C70" s="15">
-        <v>7510830.9287</v>
-      </c>
-      <c r="D70" s="16">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="E70" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="18">
-        <v>105</v>
-      </c>
-      <c r="C71" s="15">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="D71" s="16">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="E71" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="18">
-        <v>106</v>
-      </c>
-      <c r="C72" s="15">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="D72" s="16">
-        <v>4693751.0022</v>
-      </c>
-      <c r="E72" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
-        <v>107</v>
-      </c>
-      <c r="C73" s="15">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="D73" s="16">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="E73" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="20">
-        <v>108</v>
-      </c>
-      <c r="C74" s="21">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="D74" s="22">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="E74" s="13">
-        <v>595.572</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-    </row>
-    <row r="76" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="54" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="50" t="s">
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="51"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="46"/>
-    </row>
-    <row r="78" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="57" t="s">
+      <c r="I79" s="51"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="46"/>
+    </row>
+    <row r="80" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="60">
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="60">
         <v>152</v>
       </c>
-      <c r="F78" s="61"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="48"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="11:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K81" s="1"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="48"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+    </row>
+    <row r="82" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="49"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="49"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" s="49"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" s="49"/>
+      <c r="B86" s="49"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+    </row>
+    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C88" s="35"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C89" s="38"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="43"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="N94" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T94" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U94" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="N95" s="17">
+        <v>7</v>
+      </c>
+      <c r="O95" s="15">
+        <v>7510823.2538000001</v>
+      </c>
+      <c r="P95" s="16">
+        <v>4693758.1205000002</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S95" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="T95" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U95" s="32">
+        <v>208.47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="N96" s="17">
+        <v>12</v>
+      </c>
+      <c r="O96" s="15">
+        <v>7510843.9336000001</v>
+      </c>
+      <c r="P96" s="16">
+        <v>4693754.3136</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S96" s="63"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="32"/>
+    </row>
+    <row r="97" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="N97" s="17">
+        <v>13</v>
+      </c>
+      <c r="O97" s="15">
+        <v>7510835.4665000001</v>
+      </c>
+      <c r="P97" s="16">
+        <v>4693745.7829</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S97" s="63"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="32"/>
+    </row>
+    <row r="98" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="N98" s="17">
+        <v>19</v>
+      </c>
+      <c r="O98" s="15">
+        <v>7510831.7971999999</v>
+      </c>
+      <c r="P98" s="16">
+        <v>4693766.6201999998</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98" s="63"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="32"/>
+    </row>
+    <row r="99" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="N99" s="17">
+        <v>8</v>
+      </c>
+      <c r="O99" s="15">
+        <v>7510834.5436000004</v>
+      </c>
+      <c r="P99" s="16">
+        <v>4693744.8530999999</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S99" s="63"/>
+      <c r="T99" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="U99" s="32">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="100" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="N100" s="17">
+        <v>100</v>
+      </c>
+      <c r="O100" s="15">
+        <v>7510822.3084000004</v>
+      </c>
+      <c r="P100" s="16">
+        <v>4693757.18</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S100" s="63"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="32"/>
+    </row>
+    <row r="101" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="N101" s="17">
+        <v>101</v>
+      </c>
+      <c r="O101" s="15">
+        <v>7510832.6459999997</v>
+      </c>
+      <c r="P101" s="16">
+        <v>4693767.4647000004</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R101" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S101" s="63"/>
+      <c r="T101" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U101" s="24">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="102" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="N102" s="18">
+        <v>102</v>
+      </c>
+      <c r="O102" s="19">
+        <v>7510844.7790999999</v>
+      </c>
+      <c r="P102" s="20">
+        <v>4693755.1654000003</v>
+      </c>
+      <c r="Q102" s="13">
+        <v>590.18700000000001</v>
+      </c>
+      <c r="R102" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S102" s="64"/>
+      <c r="T102" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U102" s="22">
+        <f>SUM(U95:U101)</f>
+        <v>252.14</v>
+      </c>
+    </row>
+    <row r="103" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+    </row>
+    <row r="104" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="8"/>
+      <c r="T104" s="26"/>
+      <c r="U104" s="26"/>
+    </row>
+    <row r="105" spans="4:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="N105" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O105" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P105" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="R105" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S105" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T105" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="U105" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="N106" s="17">
+        <v>7</v>
+      </c>
+      <c r="O106" s="15">
+        <v>7510825.8598999996</v>
+      </c>
+      <c r="P106" s="16">
+        <v>4693760.7132999999</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S106" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="T106" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U106" s="29">
+        <v>136.41</v>
+      </c>
+    </row>
+    <row r="107" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="N107" s="17">
+        <v>12</v>
+      </c>
+      <c r="O107" s="15">
+        <v>7510843.0706000002</v>
+      </c>
+      <c r="P107" s="16">
+        <v>4693753.4441</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="30"/>
+    </row>
+    <row r="108" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="N108" s="17">
+        <v>13</v>
+      </c>
+      <c r="O108" s="15">
+        <v>7510838.0334000001</v>
+      </c>
+      <c r="P108" s="16">
+        <v>4693748.3690999998</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S108" s="30"/>
+      <c r="T108" s="30"/>
+      <c r="U108" s="30"/>
+    </row>
+    <row r="109" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="N109" s="17">
+        <v>19</v>
+      </c>
+      <c r="O109" s="15">
+        <v>7510830.9287</v>
+      </c>
+      <c r="P109" s="16">
+        <v>4693765.7561999997</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S109" s="30"/>
+      <c r="T109" s="30"/>
+      <c r="U109" s="30"/>
+    </row>
+    <row r="110" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="N110" s="17">
+        <v>105</v>
+      </c>
+      <c r="O110" s="15">
+        <v>7510833.7575000003</v>
+      </c>
+      <c r="P110" s="16">
+        <v>4693752.7050000001</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S110" s="30"/>
+      <c r="T110" s="30"/>
+      <c r="U110" s="30"/>
+    </row>
+    <row r="111" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="N111" s="17">
+        <v>106</v>
+      </c>
+      <c r="O111" s="15">
+        <v>7510832.0308999997</v>
+      </c>
+      <c r="P111" s="16">
+        <v>4693751.0022</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S111" s="30"/>
+      <c r="T111" s="30"/>
+      <c r="U111" s="30"/>
+    </row>
+    <row r="112" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="N112" s="17">
+        <v>107</v>
+      </c>
+      <c r="O112" s="15">
+        <v>7510828.3795999996</v>
+      </c>
+      <c r="P112" s="16">
+        <v>4693754.7046999997</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>595.572</v>
+      </c>
+      <c r="R112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S112" s="30"/>
+      <c r="T112" s="30"/>
+      <c r="U112" s="30"/>
+    </row>
+    <row r="113" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="N113" s="18">
+        <v>108</v>
+      </c>
+      <c r="O113" s="19">
+        <v>7510830.1062000003</v>
+      </c>
+      <c r="P113" s="20">
+        <v>4693756.4073999999</v>
+      </c>
+      <c r="Q113" s="13">
+        <v>595.572</v>
+      </c>
+      <c r="R113" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S113" s="31"/>
+      <c r="T113" s="31"/>
+      <c r="U113" s="31"/>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D114" s="6"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+    </row>
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="26"/>
+    </row>
+    <row r="128" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="55"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" s="51"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="46"/>
+    </row>
+    <row r="130" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="58"/>
+      <c r="C130" s="58"/>
+      <c r="D130" s="59"/>
+      <c r="E130" s="60">
+        <v>152</v>
+      </c>
+      <c r="F130" s="61"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="48"/>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K133" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="35">
+    <mergeCell ref="A81:K82"/>
+    <mergeCell ref="A83:K86"/>
+    <mergeCell ref="C88:J90"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:G80"/>
     <mergeCell ref="G32:G43"/>
     <mergeCell ref="H32:H43"/>
     <mergeCell ref="I32:I43"/>
+    <mergeCell ref="H46:H59"/>
+    <mergeCell ref="I46:I59"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="H15:H26"/>
     <mergeCell ref="I15:I26"/>
     <mergeCell ref="G15:G29"/>
-    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="J129:K130"/>
     <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="G46:G53"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="G56:G63"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="H129:I130"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="G46:G65"/>
+    <mergeCell ref="S95:S102"/>
+    <mergeCell ref="T95:T98"/>
+    <mergeCell ref="S106:S113"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="I67:I74"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="T106:T113"/>
+    <mergeCell ref="U106:U113"/>
+    <mergeCell ref="U95:U98"/>
+    <mergeCell ref="T99:T100"/>
+    <mergeCell ref="U99:U100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>Y</t>
   </si>
@@ -111,18 +111,6 @@
     <t>Kati2</t>
   </si>
   <si>
-    <t>KATI3</t>
-  </si>
-  <si>
-    <t>KATI3-TERASAT</t>
-  </si>
-  <si>
-    <t>Kati 3</t>
-  </si>
-  <si>
-    <t>KATI-NK</t>
-  </si>
-  <si>
     <t>Nënkulm</t>
   </si>
   <si>
@@ -139,6 +127,18 @@
   </si>
   <si>
     <t>KAT2-TERASA</t>
+  </si>
+  <si>
+    <t>KAT3</t>
+  </si>
+  <si>
+    <t>KAT3-TERAS</t>
+  </si>
+  <si>
+    <t>KAT3-TERASA</t>
+  </si>
+  <si>
+    <t>Gjithsej</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -706,12 +706,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -731,12 +725,6 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,6 +871,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1840,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U133"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A74" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94:U113"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,115 +1851,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1978,28 +1970,28 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="61" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2017,15 +2009,15 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="69">
+      <c r="I15" s="65">
         <v>125.2</v>
       </c>
     </row>
@@ -2043,11 +2035,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
@@ -2063,11 +2055,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="66"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
@@ -2083,11 +2075,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="66"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
@@ -2103,11 +2095,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
@@ -2123,11 +2115,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
@@ -2143,11 +2135,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
@@ -2163,11 +2155,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
@@ -2183,11 +2175,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="66"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
@@ -2203,11 +2195,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
@@ -2223,11 +2215,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
@@ -2243,11 +2235,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="71"/>
+        <v>25</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
@@ -2263,13 +2255,13 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="68">
         <v>7.32</v>
       </c>
     </row>
@@ -2287,11 +2279,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="73"/>
+        <v>26</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
@@ -2307,13 +2299,13 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="74">
+        <v>26</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="70">
         <f>I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I27+I28</f>
         <v>132.52000000000001</v>
       </c>
@@ -2322,11 +2314,11 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -2370,13 +2362,13 @@
       <c r="F32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="27">
         <v>141.58000000000001</v>
       </c>
     </row>
@@ -2396,9 +2388,9 @@
       <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
@@ -2416,9 +2408,9 @@
       <c r="F34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
@@ -2436,9 +2428,9 @@
       <c r="F35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
@@ -2456,9 +2448,9 @@
       <c r="F36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
@@ -2476,9 +2468,9 @@
       <c r="F37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
@@ -2496,9 +2488,9 @@
       <c r="F38" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
@@ -2516,9 +2508,9 @@
       <c r="F39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
@@ -2536,9 +2528,9 @@
       <c r="F40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
@@ -2556,9 +2548,9 @@
       <c r="F41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
@@ -2576,9 +2568,9 @@
       <c r="F42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
@@ -2596,11 +2588,11 @@
       <c r="F43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="31">
+      <c r="I43" s="29">
         <f>SUM(I32:I40)</f>
         <v>141.58000000000001</v>
       </c>
@@ -2653,15 +2645,15 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="77">
         <v>128.09</v>
       </c>
     </row>
@@ -2679,11 +2671,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G47" s="59"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="78"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
@@ -2699,11 +2691,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="78"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
@@ -2719,11 +2711,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G49" s="59"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
@@ -2739,11 +2731,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G50" s="59"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
@@ -2759,11 +2751,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G51" s="59"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="78"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
@@ -2779,11 +2771,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G52" s="59"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="78"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
@@ -2799,11 +2791,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="G53" s="59"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="78"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="17">
@@ -2821,9 +2813,9 @@
       <c r="F54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="63"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="82"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="78"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
@@ -2841,9 +2833,9 @@
       <c r="F55" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="82"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="78"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="17">
@@ -2861,9 +2853,9 @@
       <c r="F56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="63"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="82"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="78"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
@@ -2881,9 +2873,9 @@
       <c r="F57" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="63"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="82"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="78"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="17">
@@ -2901,9 +2893,9 @@
       <c r="F58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="82"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="78"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
@@ -2921,9 +2913,9 @@
       <c r="F59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="63"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="83"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="79"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="17">
@@ -2939,13 +2931,13 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="63"/>
-      <c r="H60" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="59"/>
+      <c r="H60" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="26">
         <v>3.74</v>
       </c>
     </row>
@@ -2963,11 +2955,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G61" s="63"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="G61" s="59"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="17">
@@ -2983,13 +2975,13 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" s="63"/>
-      <c r="H62" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="59"/>
+      <c r="H62" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="26">
         <v>5.88</v>
       </c>
     </row>
@@ -3007,11 +2999,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="63"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="G63" s="59"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="17">
@@ -3027,13 +3019,13 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="63"/>
-      <c r="H64" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="26">
         <v>3.9</v>
       </c>
     </row>
@@ -3051,9 +3043,9 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="G65" s="60"/>
       <c r="H65" s="21" t="s">
         <v>21</v>
       </c>
@@ -3172,147 +3164,147 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="54" t="s">
+      <c r="E79" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="50" t="s">
+      <c r="F79" s="51"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="51"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="46"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="42"/>
     </row>
     <row r="80" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="60">
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="56">
         <v>152</v>
       </c>
-      <c r="F80" s="61"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="47"/>
-      <c r="K80" s="48"/>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-    </row>
-    <row r="82" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="44"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+    </row>
+    <row r="82" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="49"/>
-      <c r="J83" s="49"/>
-      <c r="K83" s="49"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C88" s="35"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="37"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="40"/>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="41"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="43"/>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C88" s="31"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="33"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C89" s="34"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="36"/>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="37"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="39"/>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="6"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -3320,288 +3312,342 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="6"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D94" s="6"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="N94" s="10" t="s">
+    <row r="92" spans="1:22" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="E92" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="G92" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S94" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T94" s="11" t="s">
+      <c r="I92" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="U94" s="12" t="s">
+      <c r="J92" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D95" s="6"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="N95" s="17">
-        <v>7</v>
-      </c>
-      <c r="O95" s="15">
-        <v>7510823.2538000001</v>
-      </c>
-      <c r="P95" s="16">
-        <v>4693758.1205000002</v>
-      </c>
-      <c r="Q95" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R95" s="5" t="s">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C93" s="17">
+        <v>50</v>
+      </c>
+      <c r="D93" s="15">
+        <v>7513132.5010000002</v>
+      </c>
+      <c r="E93" s="16">
+        <v>4691720.0990000004</v>
+      </c>
+      <c r="F93" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="S95" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="T95" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="U95" s="32">
-        <v>208.47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D96" s="6"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="N96" s="17">
-        <v>12</v>
-      </c>
-      <c r="O96" s="15">
-        <v>7510843.9336000001</v>
-      </c>
-      <c r="P96" s="16">
-        <v>4693754.3136</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R96" s="5" t="s">
+      <c r="I93" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="S96" s="63"/>
-      <c r="T96" s="33"/>
-      <c r="U96" s="32"/>
-    </row>
-    <row r="97" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D97" s="6"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="N97" s="17">
-        <v>13</v>
-      </c>
-      <c r="O97" s="15">
-        <v>7510835.4665000001</v>
-      </c>
-      <c r="P97" s="16">
-        <v>4693745.7829</v>
-      </c>
-      <c r="Q97" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S97" s="63"/>
-      <c r="T97" s="33"/>
-      <c r="U97" s="32"/>
-    </row>
-    <row r="98" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D98" s="6"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="N98" s="17">
+      <c r="J93" s="27">
+        <v>101.28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C94" s="17">
+        <v>51</v>
+      </c>
+      <c r="D94" s="15">
+        <v>7513133.2570000002</v>
+      </c>
+      <c r="E94" s="16">
+        <v>4691719.3229999999</v>
+      </c>
+      <c r="F94" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="59"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="24"/>
+      <c r="U94" s="24"/>
+      <c r="V94" s="23"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C95" s="17">
+        <v>52</v>
+      </c>
+      <c r="D95" s="15">
+        <v>7513135.568</v>
+      </c>
+      <c r="E95" s="16">
+        <v>4691722.8739999998</v>
+      </c>
+      <c r="F95" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="59"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="80"/>
+      <c r="U95" s="80"/>
+      <c r="V95" s="23"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C96" s="17">
+        <v>78</v>
+      </c>
+      <c r="D96" s="15">
+        <v>7513129.2801999999</v>
+      </c>
+      <c r="E96" s="16">
+        <v>4691715.7680000002</v>
+      </c>
+      <c r="F96" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="59"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="80"/>
+      <c r="U96" s="80"/>
+      <c r="V96" s="23"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C97" s="17">
+        <v>79</v>
+      </c>
+      <c r="D97" s="15">
+        <v>7513143.2529999996</v>
+      </c>
+      <c r="E97" s="16">
+        <v>4691714.4639999997</v>
+      </c>
+      <c r="F97" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="59"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="80"/>
+      <c r="U97" s="80"/>
+      <c r="V97" s="23"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C98" s="17">
+        <v>80</v>
+      </c>
+      <c r="D98" s="15">
+        <v>7513136.3596000001</v>
+      </c>
+      <c r="E98" s="16">
+        <v>4691708.2016000003</v>
+      </c>
+      <c r="F98" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="59"/>
+      <c r="I98" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O98" s="15">
-        <v>7510831.7971999999</v>
-      </c>
-      <c r="P98" s="16">
-        <v>4693766.6201999998</v>
-      </c>
-      <c r="Q98" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R98" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S98" s="63"/>
-      <c r="T98" s="33"/>
-      <c r="U98" s="32"/>
-    </row>
-    <row r="99" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D99" s="6"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="N99" s="17">
-        <v>8</v>
-      </c>
-      <c r="O99" s="15">
-        <v>7510834.5436000004</v>
-      </c>
-      <c r="P99" s="16">
-        <v>4693744.8530999999</v>
-      </c>
-      <c r="Q99" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R99" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S99" s="63"/>
-      <c r="T99" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="U99" s="32">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="100" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D100" s="6"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="N100" s="17">
-        <v>100</v>
-      </c>
-      <c r="O100" s="15">
-        <v>7510822.3084000004</v>
-      </c>
-      <c r="P100" s="16">
-        <v>4693757.18</v>
-      </c>
-      <c r="Q100" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R100" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S100" s="63"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="32"/>
-    </row>
-    <row r="101" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D101" s="6"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="N101" s="17">
-        <v>101</v>
-      </c>
-      <c r="O101" s="15">
-        <v>7510832.6459999997</v>
-      </c>
-      <c r="P101" s="16">
-        <v>4693767.4647000004</v>
-      </c>
-      <c r="Q101" s="5">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R101" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S101" s="63"/>
-      <c r="T101" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="U101" s="24">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="102" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="6"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="N102" s="18">
-        <v>102</v>
-      </c>
-      <c r="O102" s="19">
-        <v>7510844.7790999999</v>
-      </c>
-      <c r="P102" s="20">
-        <v>4693755.1654000003</v>
-      </c>
-      <c r="Q102" s="13">
-        <v>590.18700000000001</v>
-      </c>
-      <c r="R102" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="S102" s="64"/>
-      <c r="T102" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="U102" s="22">
-        <f>SUM(U95:U101)</f>
-        <v>252.14</v>
-      </c>
-    </row>
-    <row r="103" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D103" s="6"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="J98" s="27">
+        <v>40.29</v>
+      </c>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="71"/>
+      <c r="T98" s="80"/>
+      <c r="U98" s="80"/>
+      <c r="V98" s="23"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C99" s="17">
+        <v>82</v>
+      </c>
+      <c r="D99" s="15">
+        <v>7513133.0180000002</v>
+      </c>
+      <c r="E99" s="16">
+        <v>4691706.2857999997</v>
+      </c>
+      <c r="F99" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="59"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="80"/>
+      <c r="U99" s="80"/>
+      <c r="V99" s="23"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C100" s="17">
+        <v>42</v>
+      </c>
+      <c r="D100" s="15">
+        <v>7513127.6977000004</v>
+      </c>
+      <c r="E100" s="16">
+        <v>4691714.3306</v>
+      </c>
+      <c r="F100" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="59"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="23"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="71"/>
+      <c r="T100" s="80"/>
+      <c r="U100" s="80"/>
+      <c r="V100" s="23"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C101" s="17">
+        <v>43</v>
+      </c>
+      <c r="D101" s="15">
+        <v>7513127.2779999999</v>
+      </c>
+      <c r="E101" s="16">
+        <v>4691713.9479999999</v>
+      </c>
+      <c r="F101" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101" s="59"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="23"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="71"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="23"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C102" s="17">
+        <v>44</v>
+      </c>
+      <c r="D102" s="15">
+        <v>7513127.3439999996</v>
+      </c>
+      <c r="E102" s="16">
+        <v>4691712.3039999995</v>
+      </c>
+      <c r="F102" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H102" s="59"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="71"/>
+      <c r="T102" s="24"/>
+      <c r="U102" s="24"/>
+      <c r="V102" s="23"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C103" s="17">
+        <v>45</v>
+      </c>
+      <c r="D103" s="15">
+        <v>7513128.142</v>
+      </c>
+      <c r="E103" s="16">
+        <v>4691711.0889999997</v>
+      </c>
+      <c r="F103" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H103" s="59"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
@@ -3609,269 +3655,136 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
     </row>
-    <row r="104" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="6"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C104" s="17">
+        <v>47</v>
+      </c>
+      <c r="D104" s="15">
+        <v>7513132.0240000002</v>
+      </c>
+      <c r="E104" s="16">
+        <v>4691706.8949999996</v>
+      </c>
+      <c r="F104" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H104" s="59"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="23"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="8"/>
-      <c r="T104" s="26"/>
-      <c r="U104" s="26"/>
-    </row>
-    <row r="105" spans="4:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D105" s="6"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="N105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O105" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P105" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R105" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S105" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T105" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="U105" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D106" s="6"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="N106" s="17">
-        <v>7</v>
-      </c>
-      <c r="O106" s="15">
-        <v>7510825.8598999996</v>
-      </c>
-      <c r="P106" s="16">
-        <v>4693760.7132999999</v>
-      </c>
-      <c r="Q106" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R106" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S106" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T106" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U106" s="29">
-        <v>136.41</v>
-      </c>
-    </row>
-    <row r="107" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T104" s="24"/>
+      <c r="U104" s="24"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C105" s="17">
+        <v>48</v>
+      </c>
+      <c r="D105" s="15">
+        <v>7513134.6310000001</v>
+      </c>
+      <c r="E105" s="16">
+        <v>4691706.6350999996</v>
+      </c>
+      <c r="F105" s="5">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H105" s="59"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="18">
+        <v>49</v>
+      </c>
+      <c r="D106" s="19">
+        <v>7513134.1436999999</v>
+      </c>
+      <c r="E106" s="20">
+        <v>4691706.1939000003</v>
+      </c>
+      <c r="F106" s="13">
+        <v>629.29999999999995</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H106" s="60"/>
+      <c r="I106" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" s="81">
+        <f>SUM(J93:J105)</f>
+        <v>141.57</v>
+      </c>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="N107" s="17">
-        <v>12</v>
-      </c>
-      <c r="O107" s="15">
-        <v>7510843.0706000002</v>
-      </c>
-      <c r="P107" s="16">
-        <v>4693753.4441</v>
-      </c>
-      <c r="Q107" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S107" s="30"/>
-      <c r="T107" s="30"/>
-      <c r="U107" s="30"/>
-    </row>
-    <row r="108" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="N108" s="17">
-        <v>13</v>
-      </c>
-      <c r="O108" s="15">
-        <v>7510838.0334000001</v>
-      </c>
-      <c r="P108" s="16">
-        <v>4693748.3690999998</v>
-      </c>
-      <c r="Q108" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S108" s="30"/>
-      <c r="T108" s="30"/>
-      <c r="U108" s="30"/>
-    </row>
-    <row r="109" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="8"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="N109" s="17">
-        <v>19</v>
-      </c>
-      <c r="O109" s="15">
-        <v>7510830.9287</v>
-      </c>
-      <c r="P109" s="16">
-        <v>4693765.7561999997</v>
-      </c>
-      <c r="Q109" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S109" s="30"/>
-      <c r="T109" s="30"/>
-      <c r="U109" s="30"/>
-    </row>
-    <row r="110" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="N110" s="17">
-        <v>105</v>
-      </c>
-      <c r="O110" s="15">
-        <v>7510833.7575000003</v>
-      </c>
-      <c r="P110" s="16">
-        <v>4693752.7050000001</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R110" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S110" s="30"/>
-      <c r="T110" s="30"/>
-      <c r="U110" s="30"/>
-    </row>
-    <row r="111" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="N111" s="17">
-        <v>106</v>
-      </c>
-      <c r="O111" s="15">
-        <v>7510832.0308999997</v>
-      </c>
-      <c r="P111" s="16">
-        <v>4693751.0022</v>
-      </c>
-      <c r="Q111" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R111" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S111" s="30"/>
-      <c r="T111" s="30"/>
-      <c r="U111" s="30"/>
-    </row>
-    <row r="112" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
       <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="N112" s="17">
-        <v>107</v>
-      </c>
-      <c r="O112" s="15">
-        <v>7510828.3795999996</v>
-      </c>
-      <c r="P112" s="16">
-        <v>4693754.7046999997</v>
-      </c>
-      <c r="Q112" s="5">
-        <v>595.572</v>
-      </c>
-      <c r="R112" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S112" s="30"/>
-      <c r="T112" s="30"/>
-      <c r="U112" s="30"/>
-    </row>
-    <row r="113" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="N113" s="18">
-        <v>108</v>
-      </c>
-      <c r="O113" s="19">
-        <v>7510830.1062000003</v>
-      </c>
-      <c r="P113" s="20">
-        <v>4693756.4073999999</v>
-      </c>
-      <c r="Q113" s="13">
-        <v>595.572</v>
-      </c>
-      <c r="R113" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S113" s="31"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-    </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
       <c r="E114" s="7"/>
       <c r="F114" s="7"/>
@@ -3879,7 +3792,7 @@
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
@@ -3887,7 +3800,7 @@
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
@@ -3895,7 +3808,7 @@
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
@@ -3903,7 +3816,7 @@
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
@@ -3911,7 +3824,7 @@
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
@@ -3919,17 +3832,17 @@
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
       <c r="D127" s="6"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-    </row>
-    <row r="128" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+    </row>
+    <row r="128" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3939,34 +3852,34 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="54" t="s">
+      <c r="E129" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="55"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="50" t="s">
+      <c r="F129" s="51"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I129" s="51"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="46"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="42"/>
     </row>
     <row r="130" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="57" t="s">
+      <c r="A130" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="58"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="59"/>
-      <c r="E130" s="60">
+      <c r="B130" s="54"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="56">
         <v>152</v>
       </c>
-      <c r="F130" s="61"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="53"/>
-      <c r="J130" s="47"/>
-      <c r="K130" s="48"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="49"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="44"/>
     </row>
     <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K131" s="1"/>
@@ -3978,10 +3891,15 @@
       <c r="K133" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="32">
     <mergeCell ref="A81:K82"/>
     <mergeCell ref="A83:K86"/>
     <mergeCell ref="C88:J90"/>
+    <mergeCell ref="H93:H106"/>
+    <mergeCell ref="I93:I97"/>
+    <mergeCell ref="J93:J97"/>
+    <mergeCell ref="I98:I105"/>
+    <mergeCell ref="J98:J105"/>
     <mergeCell ref="E79:G79"/>
     <mergeCell ref="H79:I80"/>
     <mergeCell ref="J79:K80"/>
@@ -4004,16 +3922,8 @@
     <mergeCell ref="A130:D130"/>
     <mergeCell ref="E130:G130"/>
     <mergeCell ref="G46:G65"/>
-    <mergeCell ref="S95:S102"/>
-    <mergeCell ref="T95:T98"/>
-    <mergeCell ref="S106:S113"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="C8:J10"/>
-    <mergeCell ref="T106:T113"/>
-    <mergeCell ref="U106:U113"/>
-    <mergeCell ref="U95:U98"/>
-    <mergeCell ref="T99:T100"/>
-    <mergeCell ref="U99:U100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
+++ b/3-Katet/regjistri/29-Koordinatat-e-kateve-2602-0-Albnori.xlsx
@@ -69,9 +69,6 @@
 </t>
   </si>
   <si>
-    <t>Sead Prushi</t>
-  </si>
-  <si>
     <t>Sqarim</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   <si>
     <t>Gjithsej</t>
   </si>
+  <si>
+    <t>Liridon Sejdiu</t>
+  </si>
 </sst>
 </file>
 
@@ -716,133 +716,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -853,6 +730,112 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,10 +854,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S82" sqref="S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,115 +1851,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
@@ -1970,28 +1970,28 @@
       <c r="I12" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="F14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="61" t="s">
+      <c r="H14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2009,15 +2009,15 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="79">
         <v>125.2</v>
       </c>
     </row>
@@ -2035,11 +2035,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="80"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
@@ -2055,11 +2055,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
@@ -2075,11 +2075,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
@@ -2095,11 +2095,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
@@ -2115,11 +2115,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
@@ -2135,11 +2135,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
@@ -2155,11 +2155,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
@@ -2175,11 +2175,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
@@ -2195,11 +2195,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
@@ -2215,11 +2215,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="66"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
@@ -2235,11 +2235,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="67"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
@@ -2255,13 +2255,13 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="68">
+        <v>25</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="77">
         <v>7.32</v>
       </c>
     </row>
@@ -2279,11 +2279,11 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="69"/>
+        <v>25</v>
+      </c>
+      <c r="G28" s="49"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
@@ -2299,13 +2299,13 @@
         <v>620.11199999999997</v>
       </c>
       <c r="F29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="70">
+      <c r="I29" s="29">
         <f>I15+I16+I17+I18+I19+I20+I21+I22+I23+I24+I25+I26+I27+I28</f>
         <v>132.52000000000001</v>
       </c>
@@ -2314,11 +2314,11 @@
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -2331,16 +2331,16 @@
         <v>1</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>7</v>
@@ -2360,15 +2360,15 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="H32" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="27">
+      <c r="I32" s="48">
         <v>141.58000000000001</v>
       </c>
     </row>
@@ -2386,11 +2386,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="17">
@@ -2406,11 +2406,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
@@ -2426,11 +2426,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="17">
@@ -2446,11 +2446,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
@@ -2466,11 +2466,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="17">
@@ -2486,11 +2486,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
@@ -2506,11 +2506,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
@@ -2526,11 +2526,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
@@ -2546,11 +2546,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
@@ -2566,11 +2566,11 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="18">
@@ -2586,13 +2586,13 @@
         <v>623.17399999999998</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="29">
+      <c r="G43" s="68"/>
+      <c r="H43" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="68">
         <f>SUM(I32:I40)</f>
         <v>141.58000000000001</v>
       </c>
@@ -2616,16 +2616,16 @@
         <v>1</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>7</v>
@@ -2645,15 +2645,15 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="77">
+      <c r="H46" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="72">
         <v>128.09</v>
       </c>
     </row>
@@ -2671,11 +2671,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="59"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="73"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
@@ -2691,11 +2691,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="59"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="73"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
@@ -2711,11 +2711,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G49" s="46"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="73"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
@@ -2731,11 +2731,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="73"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
@@ -2751,11 +2751,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="59"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G51" s="46"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="73"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
@@ -2771,11 +2771,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="59"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="73"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
@@ -2791,11 +2791,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="59"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="78"/>
+        <v>27</v>
+      </c>
+      <c r="G53" s="46"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="73"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="17">
@@ -2811,11 +2811,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="59"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="73"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
@@ -2831,11 +2831,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="59"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="73"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="17">
@@ -2851,11 +2851,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="59"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="73"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
@@ -2871,11 +2871,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="73"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="17">
@@ -2891,11 +2891,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="59"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="73"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
@@ -2911,11 +2911,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="59"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="79"/>
+        <v>19</v>
+      </c>
+      <c r="G59" s="46"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="74"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="17">
@@ -2931,11 +2931,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="G60" s="46"/>
       <c r="H60" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I60" s="26">
         <v>3.74</v>
@@ -2955,9 +2955,9 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="G61" s="46"/>
       <c r="H61" s="25"/>
       <c r="I61" s="26"/>
     </row>
@@ -2975,11 +2975,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="G62" s="46"/>
       <c r="H62" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I62" s="26">
         <v>5.88</v>
@@ -2999,9 +2999,9 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="G63" s="46"/>
       <c r="H63" s="25"/>
       <c r="I63" s="26"/>
     </row>
@@ -3019,11 +3019,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="G64" s="46"/>
       <c r="H64" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I64" s="26">
         <v>3.9</v>
@@ -3043,11 +3043,11 @@
         <v>626.09400000000005</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="60"/>
+        <v>28</v>
+      </c>
+      <c r="G65" s="47"/>
       <c r="H65" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I65" s="22">
         <v>141.61000000000001</v>
@@ -3164,145 +3164,145 @@
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="51"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="46" t="s">
+      <c r="E79" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="42"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="58"/>
+      <c r="K79" s="59"/>
     </row>
     <row r="80" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="53" t="s">
+      <c r="A80" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="56">
-        <v>152</v>
-      </c>
-      <c r="F80" s="57"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="44"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65">
+        <v>140</v>
+      </c>
+      <c r="F80" s="66"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="61"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="30"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C88" s="31"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="33"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C89" s="34"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="36"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="37"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="39"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="45"/>
     </row>
     <row r="91" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="6"/>
@@ -3323,16 +3323,16 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>6</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J92" s="12" t="s">
         <v>7</v>
@@ -3352,15 +3352,15 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J93" s="27">
+        <v>29</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="48">
         <v>101.28</v>
       </c>
     </row>
@@ -3378,11 +3378,11 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" s="59"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H94" s="46"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
       <c r="N94" s="24"/>
       <c r="O94" s="24"/>
       <c r="P94" s="24"/>
@@ -3407,19 +3407,19 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" s="59"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H95" s="46"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="71"/>
-      <c r="T95" s="80"/>
-      <c r="U95" s="80"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="33"/>
+      <c r="U95" s="33"/>
       <c r="V95" s="23"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
@@ -3436,19 +3436,19 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H96" s="59"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="H96" s="46"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="71"/>
-      <c r="T96" s="80"/>
-      <c r="U96" s="80"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="33"/>
+      <c r="U96" s="33"/>
       <c r="V96" s="23"/>
     </row>
     <row r="97" spans="3:22" x14ac:dyDescent="0.25">
@@ -3465,19 +3465,19 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" s="59"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="H97" s="46"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="71"/>
-      <c r="T97" s="80"/>
-      <c r="U97" s="80"/>
+      <c r="S97" s="30"/>
+      <c r="T97" s="33"/>
+      <c r="U97" s="33"/>
       <c r="V97" s="23"/>
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.25">
@@ -3494,13 +3494,13 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H98" s="59"/>
-      <c r="I98" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" s="27">
+        <v>30</v>
+      </c>
+      <c r="H98" s="46"/>
+      <c r="I98" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="48">
         <v>40.29</v>
       </c>
       <c r="N98" s="23"/>
@@ -3508,9 +3508,9 @@
       <c r="P98" s="6"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="71"/>
-      <c r="T98" s="80"/>
-      <c r="U98" s="80"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="33"/>
+      <c r="U98" s="33"/>
       <c r="V98" s="23"/>
     </row>
     <row r="99" spans="3:22" x14ac:dyDescent="0.25">
@@ -3527,19 +3527,19 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H99" s="59"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="H99" s="46"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="49"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="71"/>
-      <c r="T99" s="80"/>
-      <c r="U99" s="80"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
       <c r="V99" s="23"/>
     </row>
     <row r="100" spans="3:22" x14ac:dyDescent="0.25">
@@ -3556,19 +3556,19 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H100" s="59"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="H100" s="46"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="71"/>
-      <c r="T100" s="80"/>
-      <c r="U100" s="80"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
       <c r="V100" s="23"/>
     </row>
     <row r="101" spans="3:22" x14ac:dyDescent="0.25">
@@ -3585,17 +3585,17 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H101" s="59"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="H101" s="46"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="49"/>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="71"/>
+      <c r="S101" s="30"/>
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="23"/>
@@ -3614,17 +3614,17 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H102" s="59"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="H102" s="46"/>
+      <c r="I102" s="49"/>
+      <c r="J102" s="49"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="71"/>
+      <c r="S102" s="30"/>
       <c r="T102" s="24"/>
       <c r="U102" s="24"/>
       <c r="V102" s="23"/>
@@ -3643,11 +3643,11 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H103" s="59"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="H103" s="46"/>
+      <c r="I103" s="49"/>
+      <c r="J103" s="49"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
@@ -3669,11 +3669,11 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H104" s="59"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="H104" s="46"/>
+      <c r="I104" s="49"/>
+      <c r="J104" s="49"/>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
       <c r="P104" s="6"/>
@@ -3697,11 +3697,11 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H105" s="59"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="H105" s="46"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
     </row>
     <row r="106" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C106" s="18">
@@ -3717,13 +3717,13 @@
         <v>629.29999999999995</v>
       </c>
       <c r="G106" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H106" s="60"/>
-      <c r="I106" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J106" s="81">
+      <c r="J106" s="34">
         <f>SUM(J93:J105)</f>
         <v>141.57</v>
       </c>
@@ -3852,34 +3852,34 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="51"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="46" t="s">
+      <c r="E129" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" s="52"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I129" s="47"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="42"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="58"/>
+      <c r="K129" s="59"/>
     </row>
     <row r="130" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="53" t="s">
+      <c r="A130" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="56">
-        <v>152</v>
-      </c>
-      <c r="F130" s="57"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="49"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="44"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="63"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="65">
+        <v>140</v>
+      </c>
+      <c r="F130" s="66"/>
+      <c r="G130" s="67"/>
+      <c r="H130" s="56"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="61"/>
     </row>
     <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K131" s="1"/>
@@ -3892,6 +3892,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C8:J10"/>
+    <mergeCell ref="J129:K130"/>
+    <mergeCell ref="A3:K6"/>
+    <mergeCell ref="H129:I130"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="G46:G65"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="H15:H26"/>
+    <mergeCell ref="I15:I26"/>
+    <mergeCell ref="G15:G29"/>
+    <mergeCell ref="G32:G43"/>
+    <mergeCell ref="H32:H43"/>
+    <mergeCell ref="I32:I43"/>
+    <mergeCell ref="H46:H59"/>
+    <mergeCell ref="I46:I59"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="H79:I80"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:G80"/>
     <mergeCell ref="A81:K82"/>
     <mergeCell ref="A83:K86"/>
     <mergeCell ref="C88:J90"/>
@@ -3900,30 +3924,6 @@
     <mergeCell ref="J93:J97"/>
     <mergeCell ref="I98:I105"/>
     <mergeCell ref="J98:J105"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="H79:I80"/>
-    <mergeCell ref="J79:K80"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="G32:G43"/>
-    <mergeCell ref="H32:H43"/>
-    <mergeCell ref="I32:I43"/>
-    <mergeCell ref="H46:H59"/>
-    <mergeCell ref="I46:I59"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="H15:H26"/>
-    <mergeCell ref="I15:I26"/>
-    <mergeCell ref="G15:G29"/>
-    <mergeCell ref="J129:K130"/>
-    <mergeCell ref="A3:K6"/>
-    <mergeCell ref="H129:I130"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="G46:G65"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C8:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
